--- a/FlexiblePressureSensor.xlsx
+++ b/FlexiblePressureSensor.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="75">
   <si>
     <t/>
   </si>
@@ -36,22 +36,12 @@
     <t>OPA340NA/250</t>
   </si>
   <si>
-    <t>Operational Amplifiers_x000D_
-MicroAmplifier</t>
-  </si>
-  <si>
     <t>LM4132AMF-3.3/NOPB</t>
   </si>
   <si>
     <t>Precision Low Dropout Voltage Reference</t>
   </si>
   <si>
-    <t>OPA320AIDBV</t>
-  </si>
-  <si>
-    <t>Precision, 20-MHz, 0.9-pA, Low-Noise, RRIO</t>
-  </si>
-  <si>
     <t>50В</t>
   </si>
   <si>
@@ -100,12 +90,6 @@
     <t>Разъем - 10 конт. вилка</t>
   </si>
   <si>
-    <t>0,0051</t>
-  </si>
-  <si>
-    <t>RC1206JR-075M1L</t>
-  </si>
-  <si>
     <t>Резистор</t>
   </si>
   <si>
@@ -185,6 +169,78 @@
   </si>
   <si>
     <t>FPSController</t>
+  </si>
+  <si>
+    <t>533980671</t>
+  </si>
+  <si>
+    <t>Разъем - 6 конт. розетка</t>
+  </si>
+  <si>
+    <t>524651071</t>
+  </si>
+  <si>
+    <t>Разъем - 10 конт. розетка</t>
+  </si>
+  <si>
+    <t>KPHHS-1005SYCK</t>
+  </si>
+  <si>
+    <t>MAX3086ESD+</t>
+  </si>
+  <si>
+    <t>Fail-Safe, High-Speed (10Mbps),  Slew-Rate-Limited RS-485/RS-422 Transceivers</t>
+  </si>
+  <si>
+    <t>SM712.TCT</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>FPSInterface</t>
+  </si>
+  <si>
+    <t>Operational Amplifiers_x000D_ MicroAmplifier</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Total quantity</t>
+  </si>
+  <si>
+    <t>Assembly Quantity</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>not ordered</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>Разъем - 6 конт. Вилка</t>
+  </si>
+  <si>
+    <t>510210600</t>
+  </si>
+  <si>
+    <t>Разъем - 6 конт. Коннекторы</t>
+  </si>
+  <si>
+    <t>500798100</t>
+  </si>
+  <si>
+    <t>CSRF1206FT5L00</t>
+  </si>
+  <si>
+    <t>0,005</t>
   </si>
 </sst>
 </file>
@@ -207,7 +263,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +276,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,11 +324,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
@@ -256,6 +345,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,91 +660,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="5" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>$I$3*E2</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <f>$I$2*F2</f>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F16" si="0">$I$3*E3</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G37" si="1">$I$2*F3</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -651,19 +804,30 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -671,19 +835,30 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>
@@ -691,16 +866,27 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -711,439 +897,941 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <f>$I$2*F16</f>
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="H36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38" si="2">$I$2*F38</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ref="G39" si="3">$I$2*F39</f>
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="H39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="8">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A17:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
